--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1661,7 +1661,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2768,7 +2768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3875,7 +3875,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>47063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35690</v>
+        <v>34959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64749</v>
+        <v>61484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04561574381921937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03459282347007601</v>
+        <v>0.03388405571061019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06275801257520003</v>
+        <v>0.05959319224177067</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -765,19 +765,19 @@
         <v>72489</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57105</v>
+        <v>57123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90523</v>
+        <v>90049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05511997087970093</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04342244584898482</v>
+        <v>0.04343612772778704</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06883253707989999</v>
+        <v>0.06847229840604163</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -786,19 +786,19 @@
         <v>119552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100204</v>
+        <v>99814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141190</v>
+        <v>143487</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05094169411016017</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04269738046191696</v>
+        <v>0.04253141651044939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06016206201438334</v>
+        <v>0.06114078795309671</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>984660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>966974</v>
+        <v>970239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>996033</v>
+        <v>996764</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9543842561807806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9372419874248001</v>
+        <v>0.9404068077582294</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9654071765299241</v>
+        <v>0.9661159442893897</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1218</v>
@@ -836,19 +836,19 @@
         <v>1242624</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1224590</v>
+        <v>1225064</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1258008</v>
+        <v>1257990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9448800291202991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9311674629200997</v>
+        <v>0.931527701593959</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.956577554151015</v>
+        <v>0.956563872272213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2208</v>
@@ -857,19 +857,19 @@
         <v>2227283</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2205645</v>
+        <v>2203348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2246631</v>
+        <v>2247021</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9490583058898399</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9398379379856161</v>
+        <v>0.9388592120469033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9573026195380826</v>
+        <v>0.9574685834895507</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23769</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15064</v>
+        <v>15551</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36241</v>
+        <v>35325</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01404456380565015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008900903238299588</v>
+        <v>0.009188809745689478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0214139863145121</v>
+        <v>0.0208727179647816</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -982,19 +982,19 @@
         <v>42142</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30527</v>
+        <v>30839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>55456</v>
+        <v>56192</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02654314451912047</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01922747403760105</v>
+        <v>0.01942407575278492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03492920412718225</v>
+        <v>0.03539278907574434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1003,19 +1003,19 @@
         <v>65911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>50305</v>
+        <v>50446</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83991</v>
+        <v>83384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02009433569425274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01533669653174556</v>
+        <v>0.01537946252884842</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02560646768012846</v>
+        <v>0.02542152269439125</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1668625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1656153</v>
+        <v>1657069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1677330</v>
+        <v>1676843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9859554361943499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9785860136854886</v>
+        <v>0.9791272820352185</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9910990967617005</v>
+        <v>0.9908111902543106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1512</v>
@@ -1053,19 +1053,19 @@
         <v>1545531</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1532217</v>
+        <v>1531481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1557146</v>
+        <v>1556834</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9734568554808796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.965070795872817</v>
+        <v>0.9646072109242558</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9807725259623989</v>
+        <v>0.9805759242472152</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3138</v>
@@ -1074,19 +1074,19 @@
         <v>3214156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3196076</v>
+        <v>3196683</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3229762</v>
+        <v>3229621</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9799056643057472</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9743935323198715</v>
+        <v>0.974578477305609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9846633034682545</v>
+        <v>0.9846205374711517</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>15764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9458</v>
+        <v>9048</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25661</v>
+        <v>25305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02858787297005038</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01715158784598027</v>
+        <v>0.01640841278342454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04653784335758856</v>
+        <v>0.0458915589589397</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>6841</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2969</v>
+        <v>2920</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13864</v>
+        <v>13454</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01435951931633375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006232469078846629</v>
+        <v>0.006129299230313415</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02910076454778907</v>
+        <v>0.02824011129422762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -1220,19 +1220,19 @@
         <v>22605</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15029</v>
+        <v>13761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34560</v>
+        <v>32288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02199279204954922</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0146223113944173</v>
+        <v>0.01338892482581799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03362502860528704</v>
+        <v>0.03141365544946564</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>535644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525747</v>
+        <v>526103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>541950</v>
+        <v>542360</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9714121270299496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534621566424113</v>
+        <v>0.9541084410410592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9828484121540196</v>
+        <v>0.9835915872165754</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>445</v>
@@ -1270,19 +1270,19 @@
         <v>469571</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462548</v>
+        <v>462958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473443</v>
+        <v>473492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9856404806836663</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9708992354522109</v>
+        <v>0.9717598887057712</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937675309211533</v>
+        <v>0.9938707007696866</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>957</v>
@@ -1291,19 +1291,19 @@
         <v>1005215</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>993260</v>
+        <v>995532</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1012791</v>
+        <v>1014059</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9780072079504508</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9663749713947132</v>
+        <v>0.9685863445505349</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9853776886055828</v>
+        <v>0.9866110751741821</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>86595</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70080</v>
+        <v>70724</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109225</v>
+        <v>107543</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02643708143675029</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02139506969541165</v>
+        <v>0.02159167173352537</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0333456897099232</v>
+        <v>0.03283219483305003</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1416,19 +1416,19 @@
         <v>121472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>101568</v>
+        <v>99977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143173</v>
+        <v>144278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03594695301296968</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0300568579742511</v>
+        <v>0.02958611464338556</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04236896210187479</v>
+        <v>0.04269586779432826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>207</v>
@@ -1437,19 +1437,19 @@
         <v>208067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>181204</v>
+        <v>179011</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>234297</v>
+        <v>238969</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03126609310876499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02722938413961876</v>
+        <v>0.02689977386107404</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03520760302642681</v>
+        <v>0.03590966422165227</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3188930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3166300</v>
+        <v>3167982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3205445</v>
+        <v>3204801</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9735629185632497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9666543102900772</v>
+        <v>0.96716780516695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9786049303045883</v>
+        <v>0.9784083282664747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3175</v>
@@ -1487,19 +1487,19 @@
         <v>3257725</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3236024</v>
+        <v>3234919</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3277629</v>
+        <v>3279220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9640530469870303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9576310378981254</v>
+        <v>0.9573041322056717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.969943142025749</v>
+        <v>0.9704138853566143</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6303</v>
@@ -1508,19 +1508,19 @@
         <v>6446655</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6420425</v>
+        <v>6415753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6473518</v>
+        <v>6475711</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9687339068912351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647923969735738</v>
+        <v>0.9640903357783478</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9727706158603814</v>
+        <v>0.9731002261389261</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>66946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52075</v>
+        <v>51933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84652</v>
+        <v>83989</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06912552674765128</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05376969132668648</v>
+        <v>0.05362352256941143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08740775372290589</v>
+        <v>0.08672303212124748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>105</v>
@@ -1872,19 +1872,19 @@
         <v>109616</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90439</v>
+        <v>90403</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>129220</v>
+        <v>130175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08219969719971165</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06781976285383404</v>
+        <v>0.06779218201996569</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09690064708316211</v>
+        <v>0.09761710625865408</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>164</v>
@@ -1893,19 +1893,19 @@
         <v>176562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>152365</v>
+        <v>152451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204190</v>
+        <v>204681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07669927016071826</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06618786115591943</v>
+        <v>0.06622535763310579</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08870090695591318</v>
+        <v>0.08891422691352328</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>901528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>883822</v>
+        <v>884485</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>916399</v>
+        <v>916541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9308744732523487</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9125922462770941</v>
+        <v>0.9132769678787525</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9462303086733137</v>
+        <v>0.9463764774305884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1138</v>
@@ -1943,19 +1943,19 @@
         <v>1223911</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1204307</v>
+        <v>1203352</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1243088</v>
+        <v>1243124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9178003028002883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9030993529168377</v>
+        <v>0.9023828937413462</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9321802371461659</v>
+        <v>0.9322078179800348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1983</v>
@@ -1964,19 +1964,19 @@
         <v>2125439</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2097811</v>
+        <v>2097320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2149636</v>
+        <v>2149550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9233007298392818</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9112990930440868</v>
+        <v>0.9110857730864773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9338121388440807</v>
+        <v>0.9337746423668944</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>55551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42151</v>
+        <v>42365</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74013</v>
+        <v>74257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02834183427139235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02150542243455749</v>
+        <v>0.02161461788336501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0377613612117724</v>
+        <v>0.03788594676051981</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -2089,19 +2089,19 @@
         <v>56314</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43077</v>
+        <v>41113</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74748</v>
+        <v>73425</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03214557846261133</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02458972075361169</v>
+        <v>0.02346822443682825</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04266793053435545</v>
+        <v>0.04191304705275956</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -2110,19 +2110,19 @@
         <v>111865</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90455</v>
+        <v>91090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135955</v>
+        <v>135492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03013704364220608</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02436899233887198</v>
+        <v>0.02454027996184736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03662714517228818</v>
+        <v>0.03650229907660139</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1904471</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1886009</v>
+        <v>1885765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1917871</v>
+        <v>1917657</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9716581657286076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9622386387882276</v>
+        <v>0.9621140532394802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9784945775654424</v>
+        <v>0.9783853821166349</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1582</v>
@@ -2160,19 +2160,19 @@
         <v>1695535</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1677101</v>
+        <v>1678424</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1708772</v>
+        <v>1710736</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9678544215373887</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9573320694656446</v>
+        <v>0.9580869529472406</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9754102792463883</v>
+        <v>0.9765317755631721</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3383</v>
@@ -2181,19 +2181,19 @@
         <v>3600006</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3575916</v>
+        <v>3576379</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3621416</v>
+        <v>3620781</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.969862956357794</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9633728548277121</v>
+        <v>0.9634977009233987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9756310076611282</v>
+        <v>0.9754597200381526</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>17767</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10049</v>
+        <v>10042</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32326</v>
+        <v>31565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03698812752741217</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02092091292235793</v>
+        <v>0.02090613911049716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0672982541682014</v>
+        <v>0.06571397494275563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2306,19 +2306,19 @@
         <v>24165</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14768</v>
+        <v>15609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37130</v>
+        <v>35998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0528027438894619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0322681264391981</v>
+        <v>0.03410558879777389</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08113039944508933</v>
+        <v>0.07865760538162817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -2327,19 +2327,19 @@
         <v>41932</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28764</v>
+        <v>30217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57184</v>
+        <v>60951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04470426153560273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03066523308468633</v>
+        <v>0.03221492877152035</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06096455683988585</v>
+        <v>0.06498022830069448</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>462565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448006</v>
+        <v>448767</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>470283</v>
+        <v>470290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9630118724725878</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9327017458317982</v>
+        <v>0.9342860250572442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.979079087077642</v>
+        <v>0.9790938608895029</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>390</v>
@@ -2377,19 +2377,19 @@
         <v>433489</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>420524</v>
+        <v>421656</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>442886</v>
+        <v>442045</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9471972561105381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9188696005549106</v>
+        <v>0.9213423946183718</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9677318735608019</v>
+        <v>0.965894411202226</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>814</v>
@@ -2398,19 +2398,19 @@
         <v>896054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>880802</v>
+        <v>877035</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>909222</v>
+        <v>907769</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9552957384643973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9390354431601141</v>
+        <v>0.9350197716993055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9693347669153136</v>
+        <v>0.9677850712284797</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>140263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116773</v>
+        <v>116418</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166901</v>
+        <v>167063</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04114712224757776</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03425593238720545</v>
+        <v>0.03415188721582024</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04896134050419967</v>
+        <v>0.04900882056746055</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -2523,19 +2523,19 @@
         <v>190095</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164408</v>
+        <v>164528</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>220724</v>
+        <v>219075</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05365326022350436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0464033113434955</v>
+        <v>0.04643715029687353</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06229801413788419</v>
+        <v>0.06183255421022704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>297</v>
@@ -2544,19 +2544,19 @@
         <v>330359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>295803</v>
+        <v>293538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>368970</v>
+        <v>367682</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04752090465936779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04255014599801047</v>
+        <v>0.0422243537685695</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05307504178867577</v>
+        <v>0.0528896850124065</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3268565</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3241927</v>
+        <v>3241765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3292055</v>
+        <v>3292410</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9588528777524222</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9510386594958002</v>
+        <v>0.9509911794325394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657440676127944</v>
+        <v>0.9658481127841796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3110</v>
@@ -2594,19 +2594,19 @@
         <v>3352936</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3322307</v>
+        <v>3323956</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3378623</v>
+        <v>3378503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9463467397764956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9377019858621161</v>
+        <v>0.938167445789773</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9535966886565046</v>
+        <v>0.9535628497031265</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6180</v>
@@ -2615,19 +2615,19 @@
         <v>6621499</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6582888</v>
+        <v>6584176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6656055</v>
+        <v>6658320</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9524790953406322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9469249582113243</v>
+        <v>0.9471103149875936</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9574498540019896</v>
+        <v>0.9577756462314305</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>35154</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25568</v>
+        <v>24988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47953</v>
+        <v>47323</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04660123619965113</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03389465771824487</v>
+        <v>0.03312508817670207</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06356928718481406</v>
+        <v>0.06273349498985081</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -2979,19 +2979,19 @@
         <v>73011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56781</v>
+        <v>58380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93112</v>
+        <v>94441</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07340310133216607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05708537090466239</v>
+        <v>0.05869319183798376</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09361181341751067</v>
+        <v>0.09494800031261826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -3000,19 +3000,19 @@
         <v>108165</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>88450</v>
+        <v>88798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>130615</v>
+        <v>128564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06184345567421951</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05057180505239101</v>
+        <v>0.05077065545084902</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07467954205024761</v>
+        <v>0.07350701550690754</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>719193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>706394</v>
+        <v>707024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>728779</v>
+        <v>729359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9533987638003488</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9364307128151859</v>
+        <v>0.9372665050101491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9661053422817552</v>
+        <v>0.9668749118232979</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>830</v>
@@ -3050,19 +3050,19 @@
         <v>921649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>901548</v>
+        <v>900219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>937879</v>
+        <v>936280</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9265968986678339</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9063881865824893</v>
+        <v>0.905051999687382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9429146290953376</v>
+        <v>0.9413068081620165</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1555</v>
@@ -3071,19 +3071,19 @@
         <v>1640842</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1618392</v>
+        <v>1620443</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1660557</v>
+        <v>1660209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9381565443257806</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9253204579497522</v>
+        <v>0.9264929844930928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.949428194947608</v>
+        <v>0.9492293445491511</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>48833</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35310</v>
+        <v>36209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64559</v>
+        <v>65028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02351850763824104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01700561515570429</v>
+        <v>0.01743852641461382</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03109213892993386</v>
+        <v>0.03131772097155504</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -3196,19 +3196,19 @@
         <v>53013</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>39088</v>
+        <v>40288</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67958</v>
+        <v>69699</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02666267302992668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01965899101201262</v>
+        <v>0.02026246908828185</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03417918044829951</v>
+        <v>0.03505478773120962</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -3217,19 +3217,19 @@
         <v>101847</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82077</v>
+        <v>82299</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125314</v>
+        <v>127041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0250565220736635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02019259656791685</v>
+        <v>0.0202474079805463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03082986951861666</v>
+        <v>0.03125478938979556</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2027552</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2011826</v>
+        <v>2011357</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2041075</v>
+        <v>2040176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.976481492361759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.968907861070066</v>
+        <v>0.9686822790284451</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9829943848442955</v>
+        <v>0.9825614735853861</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1860</v>
@@ -3267,19 +3267,19 @@
         <v>1935287</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1920342</v>
+        <v>1918601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1949212</v>
+        <v>1948012</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9733373269700734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9658208195517005</v>
+        <v>0.9649452122687905</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9803410089879874</v>
+        <v>0.9797375309117182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3769</v>
@@ -3288,19 +3288,19 @@
         <v>3962838</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3939371</v>
+        <v>3937644</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3982608</v>
+        <v>3982386</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9749434779263365</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9691701304813833</v>
+        <v>0.9687452106102047</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9798074034320832</v>
+        <v>0.9797525920194537</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>14727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7567</v>
+        <v>7877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25461</v>
+        <v>24558</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02692923695204619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01383666245318489</v>
+        <v>0.01440280290682273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04655700030283157</v>
+        <v>0.04490514603818595</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -3413,19 +3413,19 @@
         <v>17713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9873</v>
+        <v>10399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28532</v>
+        <v>29845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03225556283269383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0179782783962605</v>
+        <v>0.01893665336328306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05195837678341236</v>
+        <v>0.0543480593755002</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3434,19 +3434,19 @@
         <v>32440</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22141</v>
+        <v>21250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46777</v>
+        <v>46346</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02959787708682639</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02020083573856255</v>
+        <v>0.0193885628013461</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0426790216364575</v>
+        <v>0.04228580735122872</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>532159</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521425</v>
+        <v>522328</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>539319</v>
+        <v>539009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9730707630479538</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534429996971684</v>
+        <v>0.9550948539618139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9861633375468151</v>
+        <v>0.9855971970931772</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>511</v>
@@ -3484,19 +3484,19 @@
         <v>531427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>520608</v>
+        <v>519295</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>539267</v>
+        <v>538741</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9677444371673062</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9480416232165877</v>
+        <v>0.9456519406244995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9820217216037395</v>
+        <v>0.9810633466367169</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1000</v>
@@ -3505,19 +3505,19 @@
         <v>1063587</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1049250</v>
+        <v>1049681</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1073886</v>
+        <v>1074777</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9704021229131736</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9573209783635425</v>
+        <v>0.9577141926487714</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9797991642614374</v>
+        <v>0.980611437198654</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>98714</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80489</v>
+        <v>80430</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120612</v>
+        <v>120595</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02922598063888766</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02383023968734853</v>
+        <v>0.02381272306060287</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03570905751190581</v>
+        <v>0.03570400887210586</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>125</v>
@@ -3630,19 +3630,19 @@
         <v>143737</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120071</v>
+        <v>119721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>169773</v>
+        <v>168813</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04069458517134873</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03399414565379917</v>
+        <v>0.03389506951952859</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04806563271600605</v>
+        <v>0.04779392524363326</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>217</v>
@@ -3651,19 +3651,19 @@
         <v>242452</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>212561</v>
+        <v>209494</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278409</v>
+        <v>270812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03508848641702214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03076265661321306</v>
+        <v>0.03031875028606944</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04029236390663623</v>
+        <v>0.03919291836586064</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3278904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3257006</v>
+        <v>3257023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3297129</v>
+        <v>3297188</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9707740193611123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9642909424880941</v>
+        <v>0.9642959911278942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9761697603126515</v>
+        <v>0.9761872769393972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3201</v>
@@ -3701,19 +3701,19 @@
         <v>3388363</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3362327</v>
+        <v>3363287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3412029</v>
+        <v>3412379</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9593054148286513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9519343672839939</v>
+        <v>0.9522060747563668</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9660058543462008</v>
+        <v>0.9661049304804714</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6324</v>
@@ -3722,19 +3722,19 @@
         <v>6667266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6631309</v>
+        <v>6638906</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6697157</v>
+        <v>6700224</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9649115135829779</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9597076360933638</v>
+        <v>0.9608070816341397</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9692373433867869</v>
+        <v>0.9696812497139307</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>70451</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57348</v>
+        <v>57421</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84652</v>
+        <v>85920</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1219847966634389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09929674847995876</v>
+        <v>0.09942336390536276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.146572337759343</v>
+        <v>0.1487676461619866</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>298</v>
@@ -4086,19 +4086,19 @@
         <v>147657</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131042</v>
+        <v>131956</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163722</v>
+        <v>164027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.180043873853237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.159785274695143</v>
+        <v>0.1608995750089828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1996323107333606</v>
+        <v>0.2000042988693592</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>403</v>
@@ -4107,19 +4107,19 @@
         <v>218108</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>196189</v>
+        <v>197305</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239745</v>
+        <v>242307</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1560526291217778</v>
+        <v>0.1560526291217777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1403697312171434</v>
+        <v>0.1411684760335606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1715336016453157</v>
+        <v>0.1733664413820857</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>507091</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>492890</v>
+        <v>491622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>520194</v>
+        <v>520121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.878015203336561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8534276622406575</v>
+        <v>0.8512323538380131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9007032515200414</v>
+        <v>0.900576636094637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1126</v>
@@ -4157,19 +4157,19 @@
         <v>672459</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>656394</v>
+        <v>656089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>689074</v>
+        <v>688160</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8199561261467629</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8003676892666396</v>
+        <v>0.7999957011306407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8402147253048571</v>
+        <v>0.8391004249910171</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1711</v>
@@ -4178,19 +4178,19 @@
         <v>1179550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1157913</v>
+        <v>1155351</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1201469</v>
+        <v>1200353</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8439473708782224</v>
+        <v>0.8439473708782222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8284663983546844</v>
+        <v>0.8266335586179147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8596302687828568</v>
+        <v>0.8588315239664396</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>107135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88914</v>
+        <v>91103</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>127616</v>
+        <v>129317</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04803034398855666</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03986180949073529</v>
+        <v>0.04084284581673243</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05721221824596073</v>
+        <v>0.05797483517327137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>241</v>
@@ -4303,19 +4303,19 @@
         <v>128761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>112781</v>
+        <v>111799</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>147560</v>
+        <v>145443</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05931767468561799</v>
+        <v>0.059317674685618</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05195605384186748</v>
+        <v>0.05150328226399233</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06797770803527606</v>
+        <v>0.06700252042788603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>375</v>
@@ -4324,19 +4324,19 @@
         <v>235896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213027</v>
+        <v>210159</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>264509</v>
+        <v>264943</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05359725320920104</v>
+        <v>0.05359725320920103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04840125899389451</v>
+        <v>0.04774954248305292</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0600983584107179</v>
+        <v>0.06019692571491654</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2123431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2102950</v>
+        <v>2101249</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2141652</v>
+        <v>2139463</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9519696560114436</v>
+        <v>0.9519696560114433</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9427877817540392</v>
+        <v>0.9420251648267287</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9601381905092647</v>
+        <v>0.9591571541832676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2679</v>
@@ -4374,19 +4374,19 @@
         <v>2041946</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2023147</v>
+        <v>2025264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2057926</v>
+        <v>2058908</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9406823253143819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9320222919647242</v>
+        <v>0.9329974795721144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9480439461581328</v>
+        <v>0.9484967177360079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4537</v>
@@ -4395,19 +4395,19 @@
         <v>4165378</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4136765</v>
+        <v>4136331</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4188247</v>
+        <v>4191115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9464027467907991</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9399016415892826</v>
+        <v>0.9398030742850835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9515987410061054</v>
+        <v>0.9522504575169487</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>42178</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31778</v>
+        <v>31632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55037</v>
+        <v>54209</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05927295507550127</v>
+        <v>0.05927295507550126</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0446579837100402</v>
+        <v>0.04445306240465019</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07734373516874553</v>
+        <v>0.07618048256832798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -4520,19 +4520,19 @@
         <v>35633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27061</v>
+        <v>27392</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45906</v>
+        <v>46845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04848790239615501</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0368236468641977</v>
+        <v>0.03727406087045511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06246799069440979</v>
+        <v>0.06374472223205345</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -4541,19 +4541,19 @@
         <v>77811</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63600</v>
+        <v>65505</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93492</v>
+        <v>94950</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05379360095551569</v>
+        <v>0.05379360095551567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04396928995526007</v>
+        <v>0.04528609848753083</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06463499717448563</v>
+        <v>0.06564284758216211</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>669409</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>656550</v>
+        <v>657378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>679809</v>
+        <v>679955</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9407270449244988</v>
+        <v>0.9407270449244985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9226562648312544</v>
+        <v>0.9238195174316721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9553420162899599</v>
+        <v>0.9555469375953498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>947</v>
@@ -4591,19 +4591,19 @@
         <v>699244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>688971</v>
+        <v>688032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707816</v>
+        <v>707485</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9515120976038449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9375320093055901</v>
+        <v>0.9362552777679468</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9631763531358023</v>
+        <v>0.9627259391295448</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -4612,19 +4612,19 @@
         <v>1368653</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1352972</v>
+        <v>1351514</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1382864</v>
+        <v>1380959</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9462063990444844</v>
+        <v>0.9462063990444843</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9353650028255144</v>
+        <v>0.9343571524178377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560307100447401</v>
+        <v>0.954713901512469</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>219764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>196840</v>
+        <v>195304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249009</v>
+        <v>248082</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06243837930613597</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05592532291931877</v>
+        <v>0.05548892860120599</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07074729104523481</v>
+        <v>0.07048388444524628</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>596</v>
@@ -4737,19 +4737,19 @@
         <v>312051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>286937</v>
+        <v>288527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338554</v>
+        <v>339804</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08375628070178456</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07701557843668547</v>
+        <v>0.07744226073739394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09086986622831771</v>
+        <v>0.09120538531140973</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>888</v>
@@ -4758,19 +4758,19 @@
         <v>531815</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>497180</v>
+        <v>496670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>571714</v>
+        <v>571219</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07340039125133796</v>
+        <v>0.07340039125133797</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06862008912141382</v>
+        <v>0.06854968610438886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07890716971238432</v>
+        <v>0.07883883632377175</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3299931</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3270686</v>
+        <v>3271613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3322855</v>
+        <v>3324391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.937561620693864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9292527089547653</v>
+        <v>0.9295161155547534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9440746770806812</v>
+        <v>0.9445110713987936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4752</v>
@@ -4808,19 +4808,19 @@
         <v>3413650</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3387147</v>
+        <v>3385897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3438764</v>
+        <v>3437174</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9162437192982155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9091301337716825</v>
+        <v>0.9087946146885904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9229844215633147</v>
+        <v>0.9225577392626063</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7823</v>
@@ -4829,19 +4829,19 @@
         <v>6713581</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6673682</v>
+        <v>6674177</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6748216</v>
+        <v>6748726</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9265996087486621</v>
+        <v>0.9265996087486622</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9210928302876156</v>
+        <v>0.9211611636762284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9313799108785861</v>
+        <v>0.9314503138956112</v>
       </c>
     </row>
     <row r="15">
